--- a/environment/peatland.xlsx
+++ b/environment/peatland.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/dominik_szczepaniak_gov_scot/Documents/rural_dashboard/environment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U456727\OneDrive - SCOTS Connect\R\rural_dashboard\environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104884419953BC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69FEA08-BC82-420F-9989-A36DECF4022A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3825620-6018-4C70-9F7C-93924A959C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Cumulative area of peatland restored since 2012 (thousands hectares)</t>
   </si>
@@ -33,47 +44,53 @@
     <t>Financial year end</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>Cumulative area of peatland restored since 2012 (thousand hectares)</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2024-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +121,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -119,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,15 +149,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -143,274 +188,362 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -476,23 +609,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -507,21 +623,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28E791D-14F1-4D19-AC7F-4F130D36CD62}" name="Table1342" displayName="Table1342" ref="A2:L3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A2:L3" xr:uid="{F28E791D-14F1-4D19-AC7F-4F130D36CD62}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B596561E-44BA-4807-885F-270BCC98F111}" name="Financial year end" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{B6FC63E9-EB98-42FB-A159-037CE0F49866}" name="2013" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{A0D53A60-F618-471F-8175-9ADC9A023E89}" name="2014" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{C0BD14A8-0989-423A-8189-793343DED405}" name="2015" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A958E7CF-70EC-4FCC-9BFA-586EA898D035}" name="2016" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{1F24E5D7-4B0E-405D-8BAF-68F13F04AACF}" name="2017" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D6B9F2E1-DA0F-4F35-9D72-E62A5961B972}" name="2018" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{63B4A09B-922B-4BF8-8AA5-BE82C559BE7A}" name="2019" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EC761A20-7D20-440B-A409-F23E0FC074EC}" name="2020" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{688F4BE6-9AF5-4B57-B411-5193E1E8D520}" name="2021" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{9F92A66D-17F9-4840-8A7C-7152F6FC41B7}" name="2022" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{31FFF281-D27B-4844-BE6F-F56715DD25D2}" name="2023" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28E791D-14F1-4D19-AC7F-4F130D36CD62}" name="Table1342" displayName="Table1342" ref="A2:N3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="17" headerRowBorderDxfId="14" tableBorderDxfId="16">
+  <autoFilter ref="A2:N3" xr:uid="{F28E791D-14F1-4D19-AC7F-4F130D36CD62}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{B596561E-44BA-4807-885F-270BCC98F111}" name="Financial year end" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{B6FC63E9-EB98-42FB-A159-037CE0F49866}" name="2012-13" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A0D53A60-F618-471F-8175-9ADC9A023E89}" name="2013-14" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C0BD14A8-0989-423A-8189-793343DED405}" name="2014-15" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{A958E7CF-70EC-4FCC-9BFA-586EA898D035}" name="2015-16" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{1F24E5D7-4B0E-405D-8BAF-68F13F04AACF}" name="2016-17" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D6B9F2E1-DA0F-4F35-9D72-E62A5961B972}" name="2017-18" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{63B4A09B-922B-4BF8-8AA5-BE82C559BE7A}" name="2018-19" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EC761A20-7D20-440B-A409-F23E0FC074EC}" name="2019-20" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{688F4BE6-9AF5-4B57-B411-5193E1E8D520}" name="2020-21" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9F92A66D-17F9-4840-8A7C-7152F6FC41B7}" name="2021-22" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{31FFF281-D27B-4844-BE6F-F56715DD25D2}" name="2022-23" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{44A0F9E2-B7EF-4469-9914-3B97505F6A3E}" name="2023-24" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{21898313-E4CB-45B5-8095-D07A709147FD}" name="2024-25" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -790,15 +908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B3" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,80 +932,92 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="101" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.26</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9.07</v>
-      </c>
-      <c r="F3" s="5">
-        <v>9.52</v>
-      </c>
-      <c r="G3" s="6">
-        <v>13.18</v>
-      </c>
-      <c r="H3" s="6">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="I3" s="6">
-        <v>24.99</v>
-      </c>
-      <c r="J3" s="6">
-        <v>30.65</v>
-      </c>
-      <c r="K3" s="6">
-        <v>36.28</v>
-      </c>
-      <c r="L3" s="6">
-        <v>43.79</v>
+      <c r="B3" s="4">
+        <v>274</v>
+      </c>
+      <c r="C3" s="4">
+        <v>699</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3768</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6577</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7027</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10663</v>
+      </c>
+      <c r="H3" s="5">
+        <v>16491</v>
+      </c>
+      <c r="I3" s="5">
+        <v>22073</v>
+      </c>
+      <c r="J3" s="5">
+        <v>27730</v>
+      </c>
+      <c r="K3" s="5">
+        <v>33361</v>
+      </c>
+      <c r="L3" s="5">
+        <v>40930</v>
+      </c>
+      <c r="M3" s="8">
+        <v>51433</v>
+      </c>
+      <c r="N3" s="8">
+        <v>66293</v>
       </c>
     </row>
   </sheetData>
